--- a/logs/2024/Arthashastra_ The Science of Wealth -  Thomas R. Trautmann.xlsx
+++ b/logs/2024/Arthashastra_ The Science of Wealth -  Thomas R. Trautmann.xlsx
@@ -430,7 +430,7 @@
         <v>45444</v>
       </c>
       <c r="B1" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45445</v>
       </c>
       <c r="B2" t="n">
-        <v>220</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45447</v>
       </c>
       <c r="B3" t="n">
-        <v>258</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45451</v>
       </c>
       <c r="B4" t="n">
-        <v>307</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45454</v>
       </c>
       <c r="B5" t="n">
-        <v>362</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45455</v>
       </c>
       <c r="B6" t="n">
-        <v>376</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
